--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>8052.681343116555</v>
+        <v>50.809305616608</v>
       </c>
       <c r="R2">
-        <v>72474.13208804899</v>
+        <v>457.283750549472</v>
       </c>
       <c r="S2">
-        <v>0.06281656805163208</v>
+        <v>0.003016357146285733</v>
       </c>
       <c r="T2">
-        <v>0.0628165680516321</v>
+        <v>0.003016357146285733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>658.1362743231846</v>
+        <v>151.886377397188</v>
       </c>
       <c r="R3">
-        <v>5923.226468908661</v>
+        <v>1366.977396574692</v>
       </c>
       <c r="S3">
-        <v>0.005133924999852255</v>
+        <v>0.009016922280782099</v>
       </c>
       <c r="T3">
-        <v>0.005133924999852257</v>
+        <v>0.009016922280782101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>386.040783306926</v>
+        <v>89.09148210127199</v>
       </c>
       <c r="R4">
-        <v>3474.367049762334</v>
+        <v>801.8233389114479</v>
       </c>
       <c r="S4">
-        <v>0.003011389138852937</v>
+        <v>0.005289025808325928</v>
       </c>
       <c r="T4">
-        <v>0.003011389138852938</v>
+        <v>0.005289025808325929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>102916.0565084721</v>
+        <v>2813.733019251704</v>
       </c>
       <c r="R5">
-        <v>926244.5085762488</v>
+        <v>25323.59717326534</v>
       </c>
       <c r="S5">
-        <v>0.8028174954167535</v>
+        <v>0.1670407339238621</v>
       </c>
       <c r="T5">
-        <v>0.8028174954167536</v>
+        <v>0.1670407339238621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>8411.209522952036</v>
@@ -818,10 +818,10 @@
         <v>75700.88570656831</v>
       </c>
       <c r="S6">
-        <v>0.06561333956753401</v>
+        <v>0.4993418360193041</v>
       </c>
       <c r="T6">
-        <v>0.06561333956753403</v>
+        <v>0.4993418360193042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>4933.734910962486</v>
@@ -880,10 +880,10 @@
         <v>44403.61419866237</v>
       </c>
       <c r="S7">
-        <v>0.03848659615074777</v>
+        <v>0.2928972631284427</v>
       </c>
       <c r="T7">
-        <v>0.03848659615074778</v>
+        <v>0.2928972631284428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>2510.232752901173</v>
+        <v>68.62995942973866</v>
       </c>
       <c r="R8">
-        <v>22592.09477611055</v>
+        <v>617.669634867648</v>
       </c>
       <c r="S8">
-        <v>0.01958157784088166</v>
+        <v>0.004074302257488953</v>
       </c>
       <c r="T8">
-        <v>0.01958157784088166</v>
+        <v>0.004074302257488954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>205.1584014423476</v>
@@ -1004,10 +1004,10 @@
         <v>1846.425612981128</v>
       </c>
       <c r="S9">
-        <v>0.001600379567556514</v>
+        <v>0.01217948174652687</v>
       </c>
       <c r="T9">
-        <v>0.001600379567556515</v>
+        <v>0.01217948174652687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>120.339074268848</v>
@@ -1066,10 +1066,10 @@
         <v>1083.051668419632</v>
       </c>
       <c r="S10">
-        <v>0.000938729266189229</v>
+        <v>0.007144077688981451</v>
       </c>
       <c r="T10">
-        <v>0.0009387292661892295</v>
+        <v>0.007144077688981453</v>
       </c>
     </row>
   </sheetData>
